--- a/cw2/Dane.xlsx
+++ b/cw2/Dane.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -891,12 +891,6 @@
     <t>SZCZYT</t>
   </si>
   <si>
-    <t>DOŁEK</t>
-  </si>
-  <si>
-    <t>ZAMKNIĘCIE</t>
-  </si>
-  <si>
     <t>7.735</t>
   </si>
   <si>
@@ -1072,6 +1066,12 @@
   </si>
   <si>
     <t>16:00:00</t>
+  </si>
+  <si>
+    <t>DOLEK</t>
+  </si>
+  <si>
+    <t>ZAMKNIECIE</t>
   </si>
 </sst>
 </file>
@@ -1474,20 +1474,20 @@
   <dimension ref="A1:H195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>287</v>
       </c>
@@ -1501,298 +1501,298 @@
         <v>290</v>
       </c>
       <c r="E1" t="s">
-        <v>291</v>
+        <v>350</v>
       </c>
       <c r="F1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43466.75</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43467.333333333336</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>315</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43467.5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43467.666666666664</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>321</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43467.75</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43468.333333333336</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>328</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43468.5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>331</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43468.666666666664</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43468.75</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43469.333333333336</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>341</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43469.5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43469.666666666664</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>347</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43471.75</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43471.75</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43472.333333333336</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43472.5</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>2</v>
@@ -1829,12 +1829,12 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43472.666666666664</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>6</v>
@@ -1846,16 +1846,16 @@
         <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43472.75</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>5</v>
@@ -1871,33 +1871,33 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43473.333333333336</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43473.5</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>10</v>
@@ -1906,19 +1906,19 @@
         <v>11</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43473.666666666664</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>10</v>
@@ -1927,46 +1927,46 @@
         <v>10</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43473.75</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>307</v>
-      </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43474.333333333336</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>11</v>
@@ -1976,18 +1976,18 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43474.5</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>13</v>
@@ -1997,12 +1997,12 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43474.666666666664</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>10</v>
@@ -2018,12 +2018,12 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43474.75</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>13</v>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43475.333333333336</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>15</v>
@@ -2060,12 +2060,12 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43475.5</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -2080,12 +2080,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43475.666666666664</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>21</v>
@@ -2100,12 +2100,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43475.75</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>22</v>
@@ -2120,12 +2120,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43476.333333333336</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>6</v>
@@ -2140,12 +2140,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43476.5</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>5</v>
@@ -2160,12 +2160,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43476.666666666664</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>3</v>
@@ -2180,12 +2180,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43478.75</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>22</v>
@@ -2200,12 +2200,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43479.333333333336</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>29</v>
@@ -2220,12 +2220,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>43479.5</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>30</v>
@@ -2240,12 +2240,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>43479.666666666664</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>32</v>
@@ -2260,12 +2260,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>43479.75</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>35</v>
@@ -2280,12 +2280,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>43480.333333333336</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>38</v>
@@ -2300,12 +2300,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>43480.5</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>41</v>
@@ -2320,12 +2320,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>43480.666666666664</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>44</v>
@@ -2340,12 +2340,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>43480.75</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>48</v>
@@ -2360,12 +2360,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43481.333333333336</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>51</v>
@@ -2380,12 +2380,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43481.5</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>54</v>
@@ -2400,12 +2400,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>43481.666666666664</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>58</v>
@@ -2420,12 +2420,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>43481.75</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>58</v>
@@ -2440,12 +2440,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>43482.333333333336</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>62</v>
@@ -2460,12 +2460,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>43482.5</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>65</v>
@@ -2480,12 +2480,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>43482.666666666664</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>67</v>
@@ -2500,12 +2500,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>43482.75</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>69</v>
@@ -2520,12 +2520,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>43483.333333333336</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>71</v>
@@ -2540,12 +2540,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>43483.5</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>73</v>
@@ -2560,12 +2560,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>43483.666666666664</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>76</v>
@@ -2580,12 +2580,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>43485.75</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>77</v>
@@ -2600,12 +2600,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>43486.333333333336</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>81</v>
@@ -2620,12 +2620,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>43486.5</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>51</v>
@@ -2640,12 +2640,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>43486.666666666664</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>53</v>
@@ -2660,12 +2660,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>43486.75</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>74</v>
@@ -2680,12 +2680,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>43487.333333333336</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>41</v>
@@ -2700,12 +2700,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>43487.5</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>86</v>
@@ -2720,12 +2720,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>43487.666666666664</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>26</v>
@@ -2740,12 +2740,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>43487.75</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>88</v>
@@ -2760,12 +2760,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>43488.333333333336</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>50</v>
@@ -2780,12 +2780,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>43488.5</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>46</v>
@@ -2800,12 +2800,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>43488.666666666664</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>90</v>
@@ -2820,12 +2820,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>43488.75</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>92</v>
@@ -2840,12 +2840,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>43489.333333333336</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>94</v>
@@ -2860,12 +2860,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>43489.5</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>96</v>
@@ -2880,12 +2880,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>43489.666666666664</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>100</v>
@@ -2900,12 +2900,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>43489.75</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>101</v>
@@ -2920,12 +2920,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>43490.333333333336</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>105</v>
@@ -2940,12 +2940,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>43490.5</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>108</v>
@@ -2960,12 +2960,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>43490.666666666664</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>110</v>
@@ -2980,12 +2980,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>43492.75</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>114</v>
@@ -3000,12 +3000,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>43493.333333333336</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>115</v>
@@ -3020,12 +3020,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>43493.5</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>58</v>
@@ -3040,12 +3040,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>43493.666666666664</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>118</v>
@@ -3060,12 +3060,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>43493.75</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>120</v>
@@ -3080,12 +3080,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>43494.333333333336</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>123</v>
@@ -3100,12 +3100,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>43494.5</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>125</v>
@@ -3120,12 +3120,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>43494.666666666664</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>111</v>
@@ -3140,12 +3140,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>43494.75</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>130</v>
@@ -3160,12 +3160,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>43495.333333333336</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>133</v>
@@ -3180,12 +3180,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>43495.5</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>134</v>
@@ -3200,12 +3200,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>43495.666666666664</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>136</v>
@@ -3220,12 +3220,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>43495.75</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>140</v>
@@ -3240,12 +3240,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>43496.333333333336</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>144</v>
@@ -3260,12 +3260,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>43496.5</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>147</v>
@@ -3280,12 +3280,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>43496.666666666664</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>149</v>
@@ -3300,12 +3300,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>43496.75</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>151</v>
@@ -3320,12 +3320,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>43497.333333333336</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>141</v>
@@ -3340,12 +3340,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>43497.5</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>154</v>
@@ -3360,12 +3360,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>43497.666666666664</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>157</v>
@@ -3380,12 +3380,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>43499.75</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>159</v>
@@ -3400,12 +3400,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>43500.333333333336</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>161</v>
@@ -3420,12 +3420,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>43500.5</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>164</v>
@@ -3440,12 +3440,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>43500.666666666664</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>146</v>
@@ -3460,12 +3460,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>43500.75</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>168</v>
@@ -3480,12 +3480,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>43501.333333333336</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>154</v>
@@ -3500,12 +3500,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>43501.5</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>174</v>
@@ -3520,12 +3520,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>43501.666666666664</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>177</v>
@@ -3540,12 +3540,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>43501.75</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>176</v>
@@ -3560,12 +3560,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>43502.333333333336</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>138</v>
@@ -3580,12 +3580,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>43502.5</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>184</v>
@@ -3600,12 +3600,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>43502.666666666664</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>187</v>
@@ -3620,12 +3620,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>43502.75</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>190</v>
@@ -3640,12 +3640,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>43503.333333333336</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>193</v>
@@ -3660,12 +3660,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>43503.5</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>130</v>
@@ -3680,12 +3680,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>43503.666666666664</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>198</v>
@@ -3700,12 +3700,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>43503.75</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>126</v>
@@ -3720,12 +3720,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>43504.333333333336</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>200</v>
@@ -3740,12 +3740,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>43504.5</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>107</v>
@@ -3760,12 +3760,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>43504.666666666664</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>203</v>
@@ -3780,12 +3780,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>43506.75</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>125</v>
@@ -3800,12 +3800,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>43507.333333333336</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>197</v>
@@ -3820,12 +3820,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>43507.5</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>207</v>
@@ -3840,12 +3840,12 @@
         <v>209</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>43507.666666666664</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>122</v>
@@ -3860,12 +3860,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>43507.75</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>121</v>
@@ -3880,12 +3880,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>43508.333333333336</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>214</v>
@@ -3900,12 +3900,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>43508.5</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>217</v>
@@ -3920,12 +3920,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>43508.666666666664</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>219</v>
@@ -3940,12 +3940,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>43508.75</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>215</v>
@@ -3960,12 +3960,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>43509.333333333336</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>220</v>
@@ -3980,12 +3980,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>43509.5</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>73</v>
@@ -4000,12 +4000,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>43509.666666666664</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>48</v>
@@ -4020,12 +4020,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>43509.75</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>221</v>
@@ -4040,12 +4040,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>43510.333333333336</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>224</v>
@@ -4060,12 +4060,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>43510.5</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>225</v>
@@ -4080,12 +4080,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>43510.666666666664</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>20</v>
@@ -4100,12 +4100,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>43510.75</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>23</v>
@@ -4120,12 +4120,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>43511.333333333336</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>5</v>
@@ -4140,12 +4140,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>43511.5</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>6</v>
@@ -4160,12 +4160,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>43511.666666666664</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>230</v>
@@ -4180,12 +4180,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>43513.75</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>231</v>
@@ -4200,12 +4200,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>43514.333333333336</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>34</v>
@@ -4220,12 +4220,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>43514.5</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>5</v>
@@ -4240,12 +4240,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>43514.666666666664</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>2</v>
@@ -4260,12 +4260,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>43514.75</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>233</v>
@@ -4280,12 +4280,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>43515.333333333336</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>24</v>
@@ -4300,12 +4300,12 @@
         <v>234</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>43515.5</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>235</v>
@@ -4320,12 +4320,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>43515.666666666664</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>236</v>
@@ -4340,12 +4340,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>43515.75</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>236</v>
@@ -4360,12 +4360,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>43516.333333333336</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>239</v>
@@ -4380,12 +4380,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>43516.5</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>74</v>
@@ -4400,12 +4400,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>43516.666666666664</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>65</v>
@@ -4420,12 +4420,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>43516.75</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>240</v>
@@ -4440,12 +4440,12 @@
         <v>243</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>43517.333333333336</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>73</v>
@@ -4460,12 +4460,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>43517.5</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>89</v>
@@ -4480,12 +4480,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>43517.666666666664</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>244</v>
@@ -4500,12 +4500,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>43517.75</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>243</v>
@@ -4520,12 +4520,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>43518.333333333336</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>44</v>
@@ -4540,12 +4540,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>43518.5</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>246</v>
@@ -4560,12 +4560,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>43518.666666666664</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>44</v>
@@ -4580,12 +4580,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>43520.75</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>49</v>
@@ -4600,12 +4600,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>43521.333333333336</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>209</v>
@@ -4620,12 +4620,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>43521.5</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>133</v>
@@ -4640,12 +4640,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>43521.666666666664</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>123</v>
@@ -4660,12 +4660,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>43521.75</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>248</v>
@@ -4680,12 +4680,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>43522.333333333336</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>211</v>
@@ -4700,12 +4700,12 @@
         <v>211</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>43522.5</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>104</v>
@@ -4720,12 +4720,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>43522.666666666664</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>212</v>
@@ -4740,12 +4740,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>43522.75</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>122</v>
@@ -4760,12 +4760,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>43523.333333333336</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>104</v>
@@ -4780,12 +4780,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>43523.5</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>253</v>
@@ -4800,12 +4800,12 @@
         <v>254</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>43523.666666666664</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>67</v>
@@ -4820,12 +4820,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>43523.75</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>60</v>
@@ -4840,12 +4840,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>43524.333333333336</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>52</v>
@@ -4860,12 +4860,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>43524.5</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>65</v>
@@ -4880,12 +4880,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>43524.666666666664</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>45</v>
@@ -4900,12 +4900,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>43524.75</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>44</v>
@@ -4920,12 +4920,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>43525.333333333336</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>64</v>
@@ -4940,12 +4940,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>43525.5</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>256</v>
@@ -4960,12 +4960,12 @@
         <v>258</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>43525.666666666664</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>259</v>
@@ -4980,12 +4980,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>43527.75</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>258</v>
@@ -5000,12 +5000,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>43528.333333333336</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>32</v>
@@ -5020,12 +5020,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>43528.5</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>35</v>
@@ -5040,12 +5040,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>43528.666666666664</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>264</v>
@@ -5060,12 +5060,12 @@
         <v>264</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>43528.75</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>263</v>
@@ -5080,12 +5080,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>43529.333333333336</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>47</v>
@@ -5100,12 +5100,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>43529.5</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>221</v>
@@ -5120,12 +5120,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>43529.666666666664</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>222</v>
@@ -5140,12 +5140,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>43529.75</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>241</v>
@@ -5160,12 +5160,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>43530.333333333336</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>260</v>
@@ -5180,12 +5180,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>43530.5</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>37</v>
@@ -5200,12 +5200,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>43530.666666666664</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>233</v>
@@ -5220,12 +5220,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>43530.75</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>3</v>
@@ -5240,12 +5240,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>43531.333333333336</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>22</v>
@@ -5260,12 +5260,12 @@
         <v>271</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>43531.5</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>272</v>
@@ -5280,12 +5280,12 @@
         <v>273</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>43531.666666666664</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>275</v>
@@ -5300,12 +5300,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>43531.75</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>278</v>
@@ -5320,12 +5320,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>43532.333333333336</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>281</v>
@@ -5340,12 +5340,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>43532.5</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>284</v>
@@ -5360,12 +5360,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>43532.666666666664</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>273</v>
@@ -5380,7 +5380,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -5398,7 +5398,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5410,7 +5410,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
